--- a/Portal/media/Reports/Template_Porting.xlsx
+++ b/Portal/media/Reports/Template_Porting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagar/Documents/Agilis/Portal/media/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1486CA-B23D-7045-B253-2533DEC4FB6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BF3321-0283-A84E-8AEF-F93DF2188C29}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30500" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{5E4BD576-D417-514B-8A7F-FFC246D6378A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Please accept this LOA to give authorization to Fibernetics to act on our behalf.</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Port Numbers</t>
   </si>
 </sst>
 </file>
@@ -176,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,6 +182,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -197,13 +200,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A9253D-7E8F-9441-8871-4DE44E0CBDB3}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -613,223 +609,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="17">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="17">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="17">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="17">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="17">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="17">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="17">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="17">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="17">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="17">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="17">
       <c r="A16" s="3" t="s">
@@ -1002,44 +998,28 @@
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="17" customHeight="1"/>
-    <row r="27" spans="1:11" ht="17" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" ht="17" customHeight="1"/>
+    <row r="27" spans="1:11" ht="17" customHeight="1"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="E16:K25 E27:K27" name="Range12_1"/>
+    <protectedRange sqref="E16:K25" name="Range12_1"/>
     <protectedRange sqref="E13" name="Range5_1"/>
     <protectedRange sqref="E13" name="Range4_1"/>
     <protectedRange sqref="E11" name="Range3_1"/>
     <protectedRange sqref="E10" name="Range2_1"/>
     <protectedRange sqref="E9" name="Range1_1"/>
   </protectedRanges>
-  <mergeCells count="37">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="E21:K21"/>
+  <mergeCells count="35">
+    <mergeCell ref="A1:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="A15:K15"/>
@@ -1050,17 +1030,14 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A1:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="E21:K21"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="E23:K23"/>
     <mergeCell ref="A24:C24"/>
